--- a/Excel Files/Scenario 1/Expected Data/TC177/Expected Sales Order.xlsx
+++ b/Excel Files/Scenario 1/Expected Data/TC177/Expected Sales Order.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="130">
   <si>
     <t>#{Label_Title}</t>
   </si>
@@ -340,7 +340,7 @@
     <t>Islamic Republic of Pakistan,PK-CUS</t>
   </si>
   <si>
-    <t>sCB101-2311001</t>
+    <t>sDB104-2311001</t>
   </si>
   <si>
     <t>Firm</t>
@@ -352,13 +352,13 @@
     <t>Weekly</t>
   </si>
   <si>
-    <t>06 Nov 2023 - 12 Nov 2023</t>
+    <t>27 Nov 2023 - 03 Dec 2023</t>
   </si>
   <si>
     <t>By Invoice Date</t>
   </si>
   <si>
-    <t>13 Nov ~ 19 Nov</t>
+    <t>04 Dec ~ 10 Dec</t>
   </si>
   <si>
     <t>FC Qty 1</t>
@@ -373,7 +373,7 @@
     <t>b00001</t>
   </si>
   <si>
-    <t>cCB101-2311001</t>
+    <t>cDB104-2311001</t>
   </si>
   <si>
     <t>PK-CUS-POC</t>
@@ -385,7 +385,7 @@
     <t>USD</t>
   </si>
   <si>
-    <t>Completed</t>
+    <t>Processing</t>
   </si>
   <si>
     <t>s1002</t>
@@ -430,9 +430,6 @@
     <t>b00005</t>
   </si>
   <si>
-    <t>Processing</t>
-  </si>
-  <si>
     <t>s1006</t>
   </si>
   <si>
@@ -448,7 +445,7 @@
     <t>X Electronically Approved: Signature Available upon Request</t>
   </si>
   <si>
-    <t>Sales Order No.:sCB101-2311001</t>
+    <t>Sales Order No.:sDB104-2311001</t>
   </si>
   <si>
     <t>CNTW-SUP-POC</t>
@@ -9948,7 +9945,7 @@
         <v>60</v>
       </c>
       <c r="C18" s="29" t="n">
-        <v>45231.0</v>
+        <v>45250.0</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -10090,7 +10087,7 @@
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="2" t="n">
-        <v>45238.0</v>
+        <v>45252.0</v>
       </c>
     </row>
     <row r="24" spans="2:16">
@@ -10137,13 +10134,13 @@
         <v>107</v>
       </c>
       <c r="P24" s="42" t="n">
-        <v>1620.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q24" s="42" t="n">
         <v>0.0</v>
       </c>
       <c r="R24" s="42" t="n">
-        <v>1620.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
@@ -10190,13 +10187,13 @@
         <v>107</v>
       </c>
       <c r="P25" s="42" t="n">
-        <v>1620.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q25" s="42" t="n">
         <v>0.0</v>
       </c>
       <c r="R25" s="42" t="n">
-        <v>1620.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -10346,27 +10343,27 @@
         <v>1000.0</v>
       </c>
       <c r="O28" s="27" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="P28" s="42" t="n">
-        <v>600.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q28" s="42" t="n">
         <v>0.0</v>
       </c>
       <c r="R28" s="42" t="n">
-        <v>600.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="D29" s="25" t="s">
         <v>124</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>125</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>103</v>
@@ -10413,12 +10410,12 @@
     </row>
     <row r="32">
       <c r="P32" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
       <c r="P33" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -10522,7 +10519,7 @@
     </row>
     <row r="4" spans="1:16" s="10" customFormat="1">
       <c r="B4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -10608,22 +10605,22 @@
       <c r="I7" s="32"/>
       <c r="J7" s="39"/>
       <c r="K7" s="2" t="n">
-        <v>45238.0</v>
+        <v>45252.0</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>45282.0</v>
+        <v>45301.0</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>45293.0</v>
+        <v>45312.0</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>45306.0</v>
+        <v>45343.0</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>45236.0</v>
+        <v>45264.0</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>45240.0</v>
+        <v>45266.0</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -10638,7 +10635,7 @@
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G8" s="42" t="n">
         <v>10.0</v>
@@ -10653,7 +10650,7 @@
         <v>107</v>
       </c>
       <c r="K8" s="42" t="n">
-        <v>1620.0</v>
+        <v>0.0</v>
       </c>
       <c r="L8" s="42" t="n">
         <v>1620.0</v>
@@ -10661,7 +10658,9 @@
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
       <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
+      <c r="P8" s="42" t="n">
+        <v>1620.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="25" t="s">
@@ -10675,7 +10674,7 @@
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G9" s="42" t="n">
         <v>10.0</v>
@@ -10690,7 +10689,7 @@
         <v>107</v>
       </c>
       <c r="K9" s="42" t="n">
-        <v>1620.0</v>
+        <v>0.0</v>
       </c>
       <c r="L9" s="42" t="n">
         <v>1620.0</v>
@@ -10698,7 +10697,9 @@
       <c r="M9" s="42"/>
       <c r="N9" s="42"/>
       <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
+      <c r="P9" s="42" t="n">
+        <v>1620.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="25" t="s">
@@ -10712,7 +10713,7 @@
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10" s="42" t="n">
         <v>5.0</v>
@@ -10749,7 +10750,7 @@
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G11" s="42" t="n">
         <v>5.0</v>
@@ -10786,7 +10787,7 @@
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G12" s="42" t="n">
         <v>5.0</v>
@@ -10798,10 +10799,10 @@
         <v>800.0</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="K12" s="42" t="n">
-        <v>600.0</v>
+        <v>0.0</v>
       </c>
       <c r="L12" s="42" t="n">
         <v>600.0</v>
@@ -10814,22 +10815,22 @@
         <v>200.0</v>
       </c>
       <c r="P12" s="42" t="n">
-        <v>200.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="D13" s="25" t="s">
         <v>124</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>125</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13" s="42" t="n">
         <v>5.0</v>
